--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,26 +1607,26 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2846,52 +2846,52 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2906,52 +2906,52 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2966,52 +2966,52 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3026,52 +3026,52 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3086,52 +3086,52 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3146,50 +3146,20 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>11-17</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>45</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,26 +1607,26 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2846,52 +2846,52 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked . Fly with caution .</t>
+          <t>Unknown Error , Cannot Takeoff . Contact DJI support .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2906,52 +2906,52 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate . Fly with caution .</t>
+          <t>Vision sensor(s) blocked . Fly with caution .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2966,52 +2966,52 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Visual positioning inaccurate</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Weak signal . Adjust antennas .</t>
+          <t>Visual positioning inaccurate . Fly with caution .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3026,52 +3026,52 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Weak signal . Adjust antennas .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3086,52 +3086,52 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+          <t>Weak signal . Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3146,20 +3146,50 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>45</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone . Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Please fly away or land with caution</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>11-17</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
